--- a/AAII_Financials/Yearly/BREW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BREW_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E8" s="3">
         <v>206200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>207500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>202500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>204200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>179200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>169300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E9" s="3">
         <v>137900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>142200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>142900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>142000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>141300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>128900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>119300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>104000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E10" s="3">
         <v>68300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>65300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>58700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>45200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>202700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>202100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>199900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>194300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>175400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>164200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>143800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E18" s="3">
         <v>5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,8 +1049,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1026,70 +1059,76 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-200</v>
       </c>
       <c r="H20" s="3">
         <v>-200</v>
       </c>
       <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>11200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E21" s="3">
         <v>16700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
@@ -1098,77 +1137,86 @@
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>6900</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,9 +1442,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,59 +1455,65 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>200</v>
       </c>
       <c r="H32" s="3">
         <v>200</v>
       </c>
       <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-11200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E43" s="3">
         <v>30500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E44" s="3">
         <v>17200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E46" s="3">
         <v>51500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>69500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>42500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>900</v>
-      </c>
-      <c r="H47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E48" s="3">
         <v>113200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>106300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>243900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>104200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>102900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>69300</v>
+        <v>71500</v>
       </c>
       <c r="E49" s="3">
-        <v>29800</v>
+        <v>71300</v>
       </c>
       <c r="F49" s="3">
-        <v>49700</v>
+        <v>33900</v>
       </c>
       <c r="G49" s="3">
-        <v>30100</v>
+        <v>51900</v>
       </c>
       <c r="H49" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I49" s="3">
         <v>30500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,9 +2005,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1916,12 +2035,15 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>249400</v>
+      </c>
+      <c r="E54" s="3">
         <v>236000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>209600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>190300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>178600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>170300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>165700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>158900</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E57" s="3">
         <v>17600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E59" s="3">
         <v>19400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>14200</v>
       </c>
       <c r="J59" s="3">
         <v>14200</v>
       </c>
       <c r="K59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="L59" s="3">
         <v>13400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E60" s="3">
         <v>37900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>29700</v>
       </c>
       <c r="I60" s="3">
         <v>29700</v>
       </c>
       <c r="J60" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K60" s="3">
         <v>27100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E61" s="3">
         <v>46600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>32600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>27900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E62" s="3">
         <v>15200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E66" s="3">
         <v>99600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>80700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>59100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E76" s="3">
         <v>136400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>130800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>119700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>118700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>111200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>108200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>104500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,8 +2898,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2710,29 +2908,32 @@
         <v>10600</v>
       </c>
       <c r="E83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F83" s="3">
         <v>10500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E89" s="3">
         <v>13200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-15700</v>
       </c>
       <c r="G91" s="3">
         <v>-15700</v>
       </c>
       <c r="H91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-15800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E100" s="3">
         <v>14500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
